--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/09,25/16,09,25 Ост КИ филиалы/дв 16,09,25 лгрсч ост ки.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/09,25/16,09,25 Ост КИ филиалы/дв 16,09,25 лгрсч ост ки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\16,09,25 Ост КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\09,25\16,09,25 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D619D67B-D451-40DA-8ECA-AB1DDD81FE92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AD824A-1FCC-4A65-94B3-0F64EB0397A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -917,7 +917,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
+      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/09,25/16,09,25 Ост КИ филиалы/дв 16,09,25 лгрсч ост ки.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/09,25/16,09,25 Ост КИ филиалы/дв 16,09,25 лгрсч ост ки.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\09,25\16,09,25 Ост КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\09,25\16,09,25 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AD824A-1FCC-4A65-94B3-0F64EB0397A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237EC72A-FBC3-4519-84F9-F432D5094D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,15 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AH$98</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -466,8 +458,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="165" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -587,7 +580,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -607,7 +600,9 @@
     <xf numFmtId="164" fontId="1" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Arial10px" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -914,10 +909,10 @@
   <dimension ref="A1:AY499"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
+      <selection pane="bottomRight" activeCell="T64" sqref="T64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,7 +1295,7 @@
       </c>
       <c r="S5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.580000000000002</v>
       </c>
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
@@ -1414,8 +1409,14 @@
         <f>ROUND(Q6,0)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="9"/>
+      <c r="S6" s="21">
+        <f>29/5</f>
+        <v>5.8</v>
+      </c>
+      <c r="T6" s="20">
+        <f>S6/W6</f>
+        <v>1.2083333333333333</v>
+      </c>
       <c r="U6" s="9" t="e">
         <f>(F6+O6+R6)/P6</f>
         <v>#DIV/0!</v>
@@ -1527,8 +1528,14 @@
         <f t="shared" ref="R7:R70" si="5">ROUND(Q7,0)</f>
         <v>4</v>
       </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="9"/>
+      <c r="S7" s="4">
+        <f>10.9/5</f>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="T7" s="20">
+        <f>S7/P7</f>
+        <v>2.4373881932021466</v>
+      </c>
       <c r="U7" s="9">
         <f t="shared" ref="U7:U70" si="6">(F7+O7+R7)/P7</f>
         <v>16.160554561717351</v>
@@ -1865,7 +1872,10 @@
         <v>338</v>
       </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="9"/>
+      <c r="T10" s="20">
+        <f>P10/W10</f>
+        <v>3.0086600729107382</v>
+      </c>
       <c r="U10" s="9">
         <f t="shared" si="6"/>
         <v>8.9981390212478782</v>
@@ -2095,7 +2105,10 @@
         <v>58</v>
       </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="9"/>
+      <c r="T12" s="20">
+        <f>P12/W12</f>
+        <v>4</v>
+      </c>
       <c r="U12" s="9">
         <f t="shared" si="6"/>
         <v>9.0625</v>
@@ -2325,7 +2338,10 @@
         <v>29</v>
       </c>
       <c r="S14" s="4"/>
-      <c r="T14" s="9"/>
+      <c r="T14" s="20">
+        <f>P14/W14</f>
+        <v>3.4</v>
+      </c>
       <c r="U14" s="9">
         <f t="shared" si="6"/>
         <v>10.882352941176471</v>
@@ -2779,7 +2795,10 @@
         <v>66</v>
       </c>
       <c r="S18" s="4"/>
-      <c r="T18" s="9"/>
+      <c r="T18" s="20">
+        <f>P18/W18</f>
+        <v>4</v>
+      </c>
       <c r="U18" s="9">
         <f t="shared" si="6"/>
         <v>10.972222222222221</v>
@@ -2889,8 +2908,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S19" s="4"/>
-      <c r="T19" s="9"/>
+      <c r="S19" s="4">
+        <f>14/5</f>
+        <v>2.8</v>
+      </c>
+      <c r="T19" s="20">
+        <f>S19/P19</f>
+        <v>3.4999999999999996</v>
+      </c>
       <c r="U19" s="9">
         <f t="shared" si="6"/>
         <v>26.25</v>
@@ -3336,7 +3361,10 @@
         <v>50</v>
       </c>
       <c r="S23" s="4"/>
-      <c r="T23" s="9"/>
+      <c r="T23" s="20">
+        <f>P23/Y23</f>
+        <v>1.7499999999999998</v>
+      </c>
       <c r="U23" s="9">
         <f t="shared" si="6"/>
         <v>8.9285714285714288</v>
@@ -3450,7 +3478,10 @@
         <v>21</v>
       </c>
       <c r="S24" s="4"/>
-      <c r="T24" s="9"/>
+      <c r="T24" s="20">
+        <f>P24/W24</f>
+        <v>3.25</v>
+      </c>
       <c r="U24" s="9">
         <f t="shared" si="6"/>
         <v>13.846153846153845</v>
@@ -3893,7 +3924,10 @@
         <v>45</v>
       </c>
       <c r="S28" s="4"/>
-      <c r="T28" s="9"/>
+      <c r="T28" s="20">
+        <f>P28/W28</f>
+        <v>1.4999999999999998</v>
+      </c>
       <c r="U28" s="9">
         <f t="shared" si="6"/>
         <v>13.958333333333334</v>
@@ -4127,7 +4161,10 @@
         <v>71</v>
       </c>
       <c r="S30" s="4"/>
-      <c r="T30" s="9"/>
+      <c r="T30" s="20">
+        <f>P30/X30</f>
+        <v>2.074611111111111</v>
+      </c>
       <c r="U30" s="9">
         <f t="shared" si="6"/>
         <v>10.042042685376108</v>
@@ -4241,7 +4278,10 @@
         <v>23</v>
       </c>
       <c r="S31" s="4"/>
-      <c r="T31" s="9"/>
+      <c r="T31" s="20">
+        <f>P31/W31</f>
+        <v>1.5555555555555554</v>
+      </c>
       <c r="U31" s="9">
         <f t="shared" si="6"/>
         <v>13.928571428571429</v>
@@ -4470,8 +4510,13 @@
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="S33" s="4"/>
-      <c r="T33" s="9"/>
+      <c r="S33" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="T33" s="20">
+        <f>S33/P33</f>
+        <v>1.2083333333333333</v>
+      </c>
       <c r="U33" s="9">
         <f t="shared" si="6"/>
         <v>13.958333333333334</v>
@@ -4699,7 +4744,10 @@
         <v>41</v>
       </c>
       <c r="S35" s="4"/>
-      <c r="T35" s="9"/>
+      <c r="T35" s="20">
+        <f>P35/W35</f>
+        <v>2</v>
+      </c>
       <c r="U35" s="9">
         <f t="shared" si="6"/>
         <v>12.045454545454545</v>
@@ -4813,7 +4861,10 @@
         <v>198</v>
       </c>
       <c r="S36" s="4"/>
-      <c r="T36" s="9"/>
+      <c r="T36" s="20">
+        <f>P36/W36</f>
+        <v>6.875</v>
+      </c>
       <c r="U36" s="9">
         <f t="shared" si="6"/>
         <v>9</v>
@@ -5151,7 +5202,10 @@
         <v>70</v>
       </c>
       <c r="S39" s="4"/>
-      <c r="T39" s="9"/>
+      <c r="T39" s="20">
+        <f>P39/W39</f>
+        <v>1.85</v>
+      </c>
       <c r="U39" s="9">
         <f t="shared" si="6"/>
         <v>12.972972972972972</v>
@@ -6293,7 +6347,10 @@
         <v>252</v>
       </c>
       <c r="S49" s="4"/>
-      <c r="T49" s="9"/>
+      <c r="T49" s="20">
+        <f>P49/W49</f>
+        <v>2.9019607843137258</v>
+      </c>
       <c r="U49" s="9">
         <f t="shared" si="6"/>
         <v>11.993243243243242</v>
@@ -6638,7 +6695,10 @@
         <v>38</v>
       </c>
       <c r="S52" s="4"/>
-      <c r="T52" s="9"/>
+      <c r="T52" s="20">
+        <f>P52/W52</f>
+        <v>2.2000000000000002</v>
+      </c>
       <c r="U52" s="9">
         <f t="shared" si="6"/>
         <v>10</v>
@@ -6973,8 +7033,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S55" s="4"/>
-      <c r="T55" s="9"/>
+      <c r="S55" s="4">
+        <f>25/5</f>
+        <v>5</v>
+      </c>
+      <c r="T55" s="20">
+        <f>S55/P55</f>
+        <v>2.2727272727272725</v>
+      </c>
       <c r="U55" s="9">
         <f t="shared" si="6"/>
         <v>16.363636363636363</v>
@@ -7089,7 +7155,10 @@
         <v>0</v>
       </c>
       <c r="S56" s="4"/>
-      <c r="T56" s="9"/>
+      <c r="T56" s="20">
+        <f>P56/W56</f>
+        <v>2.9999999999999996</v>
+      </c>
       <c r="U56" s="9">
         <f t="shared" si="6"/>
         <v>20.833333333333336</v>
@@ -7205,7 +7274,10 @@
         <v>56</v>
       </c>
       <c r="S57" s="4"/>
-      <c r="T57" s="9"/>
+      <c r="T57" s="20">
+        <f>P57/W57</f>
+        <v>3.4444444444444446</v>
+      </c>
       <c r="U57" s="9">
         <f t="shared" si="6"/>
         <v>11.935483870967742</v>
@@ -7321,7 +7393,10 @@
         <v>41</v>
       </c>
       <c r="S58" s="4"/>
-      <c r="T58" s="9"/>
+      <c r="T58" s="20">
+        <f>P58/W58</f>
+        <v>2.0909090909090904</v>
+      </c>
       <c r="U58" s="9">
         <f t="shared" si="6"/>
         <v>13.043478260869566</v>
@@ -7883,7 +7958,10 @@
         <v>19</v>
       </c>
       <c r="S63" s="4"/>
-      <c r="T63" s="9"/>
+      <c r="T63" s="20">
+        <f>P63/W63</f>
+        <v>2.3199647421771701</v>
+      </c>
       <c r="U63" s="9">
         <f t="shared" si="6"/>
         <v>13.836436170212767</v>
@@ -8895,7 +8973,10 @@
         <v>252</v>
       </c>
       <c r="S72" s="4"/>
-      <c r="T72" s="9"/>
+      <c r="T72" s="20">
+        <f>P72/W72</f>
+        <v>2.9583333333333335</v>
+      </c>
       <c r="U72" s="9">
         <f t="shared" si="21"/>
         <v>9.0140845070422539</v>
@@ -9011,7 +9092,10 @@
         <v>285</v>
       </c>
       <c r="S73" s="4"/>
-      <c r="T73" s="9"/>
+      <c r="T73" s="20">
+        <f>P73/W73</f>
+        <v>3.2764427074671549</v>
+      </c>
       <c r="U73" s="9">
         <f t="shared" si="21"/>
         <v>10.986009770953618</v>
@@ -10233,7 +10317,10 @@
         <v>43</v>
       </c>
       <c r="S84" s="4"/>
-      <c r="T84" s="9"/>
+      <c r="T84" s="20">
+        <f>P84/W84</f>
+        <v>3.833333333333333</v>
+      </c>
       <c r="U84" s="9">
         <f t="shared" si="21"/>
         <v>13.913043478260871</v>
@@ -10872,7 +10959,10 @@
         <v>52</v>
       </c>
       <c r="S90" s="4"/>
-      <c r="T90" s="9"/>
+      <c r="T90" s="20">
+        <f>P90/Z90</f>
+        <v>2</v>
+      </c>
       <c r="U90" s="9">
         <f t="shared" si="21"/>
         <v>10</v>
@@ -11216,7 +11306,10 @@
         <v>143</v>
       </c>
       <c r="S93" s="4"/>
-      <c r="T93" s="9"/>
+      <c r="T93" s="20">
+        <f>P93/W93</f>
+        <v>1.8333333333333333</v>
+      </c>
       <c r="U93" s="9">
         <f t="shared" si="21"/>
         <v>14.025974025974026</v>
@@ -11443,7 +11536,10 @@
         <v>132</v>
       </c>
       <c r="S95" s="4"/>
-      <c r="T95" s="9"/>
+      <c r="T95" s="20">
+        <f>P95/W95</f>
+        <v>3.2083333333333335</v>
+      </c>
       <c r="U95" s="9">
         <f t="shared" si="21"/>
         <v>9.0259740259740262</v>
